--- a/Character_Gen/Races/Dwarf.xlsx
+++ b/Character_Gen/Races/Dwarf.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9B1102C-DB78-4F68-83CE-11D69BA25FC4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7B8DE1B-023A-498C-8308-A5BD16D042EF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13065" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8040" yWindow="4215" windowWidth="17280" windowHeight="8970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="All" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="38">
   <si>
     <t>Ability Score Increase</t>
   </si>
@@ -120,6 +120,18 @@
   </si>
   <si>
     <t>You have disadvantage on attack rolls and on Wisdom (Perception) checks that rely on sight when you, the target of your attack, or whatever you are trying to perceive is in direct sunlight</t>
+  </si>
+  <si>
+    <t>Smiths tools</t>
+  </si>
+  <si>
+    <t>Brewer's supplies</t>
+  </si>
+  <si>
+    <t>Mason's Tools</t>
+  </si>
+  <si>
+    <t>hp+1</t>
   </si>
 </sst>
 </file>
@@ -468,9 +480,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -478,7 +492,7 @@
     <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -491,8 +505,11 @@
       <c r="E1" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G1" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -505,16 +522,22 @@
       <c r="E2" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G2" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1">
         <v>25</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G3" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -522,7 +545,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -533,7 +556,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
@@ -541,7 +564,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
@@ -557,15 +580,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8747BA7C-1C71-48FE-9B11-AA722BC65C40}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="A1:F1"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -581,8 +604,11 @@
       <c r="F1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
     </row>
